--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PythonProj\Work\make_xl\data_xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2C732-01FA-4FA4-83A4-86339673462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98592E7-85C7-40EA-BDE6-EECC1AE8328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Тумба подкатная</t>
+  </si>
+  <si>
+    <t>Тумба для документов</t>
   </si>
   <si>
     <t>Тумба офисная на колесиках
@@ -750,9 +753,6 @@
   </si>
   <si>
     <t>Ящики</t>
-  </si>
-  <si>
-    <t>Тумба для документов</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="Q23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF2" t="s">
         <v>42</v>
@@ -1367,19 +1367,19 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN2" t="s">
         <v>42</v>
@@ -1450,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W3" t="s">
         <v>41</v>
@@ -1492,7 +1492,7 @@
         <v>43</v>
       </c>
       <c r="AJ3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK3" t="s">
         <v>41</v>
@@ -1504,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1512,46 +1512,46 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1563,7 +1563,7 @@
         <v>53</v>
       </c>
       <c r="AN4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1571,46 +1571,46 @@
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>1999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1622,7 +1622,7 @@
         <v>53</v>
       </c>
       <c r="AN5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1630,46 +1630,46 @@
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK6">
         <v>42</v>
@@ -1681,7 +1681,7 @@
         <v>53</v>
       </c>
       <c r="AN6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1689,46 +1689,46 @@
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK7">
         <v>42</v>
@@ -1740,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="AN7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -1748,46 +1748,46 @@
         <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>2999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK8">
         <v>80</v>
@@ -1804,46 +1804,46 @@
         <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N9">
         <v>2499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK9">
         <v>44</v>
@@ -1855,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -1863,46 +1863,46 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <v>1999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK10">
         <v>43</v>
@@ -1914,7 +1914,7 @@
         <v>44</v>
       </c>
       <c r="AN10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -1922,46 +1922,46 @@
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>2499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK11">
         <v>44</v>
@@ -1973,7 +1973,7 @@
         <v>68</v>
       </c>
       <c r="AN11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -1981,46 +1981,46 @@
         <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>2499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK12">
         <v>44</v>
@@ -2032,7 +2032,7 @@
         <v>68</v>
       </c>
       <c r="AN12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2040,46 +2040,46 @@
         <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>2499</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK13">
         <v>43</v>
@@ -2091,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2099,46 +2099,46 @@
         <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>2499</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK14">
         <v>44</v>
@@ -2150,7 +2150,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2158,46 +2158,46 @@
         <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>2499</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK15">
         <v>40</v>
@@ -2209,7 +2209,7 @@
         <v>45</v>
       </c>
       <c r="AN15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2217,46 +2217,46 @@
         <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>1999</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK16">
         <v>42</v>
@@ -2268,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="AN16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="12:40" x14ac:dyDescent="0.25">
@@ -2276,46 +2276,46 @@
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>999</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK17">
         <v>42</v>
@@ -2327,7 +2327,7 @@
         <v>53</v>
       </c>
       <c r="AN17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="12:40" x14ac:dyDescent="0.25">
@@ -2335,46 +2335,46 @@
         <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>2499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK18">
         <v>44</v>
@@ -2386,7 +2386,7 @@
         <v>68</v>
       </c>
       <c r="AN18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="12:40" x14ac:dyDescent="0.25">
@@ -2394,46 +2394,46 @@
         <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N19">
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK19">
         <v>80</v>
@@ -2445,54 +2445,54 @@
         <v>45</v>
       </c>
       <c r="AN19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="20" spans="12:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N20">
         <v>2499</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK20">
         <v>59</v>
@@ -2504,54 +2504,54 @@
         <v>48</v>
       </c>
       <c r="AN20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="21" spans="12:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>49</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>3499</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK21">
         <v>81</v>
@@ -2565,49 +2565,49 @@
     </row>
     <row r="22" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N22">
         <v>3999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK22">
         <v>85</v>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98592E7-85C7-40EA-BDE6-EECC1AE8328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7796B373-8D27-4CB1-AA77-D5AF197C3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="Q23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7796B373-8D27-4CB1-AA77-D5AF197C3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDBE2B5-4498-43CD-AAD2-3EF2533C3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDBE2B5-4498-43CD-AAD2-3EF2533C3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCFE300-AC66-4472-8F4E-17175F369E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -140,21 +140,6 @@
   </si>
   <si>
     <t>FurnitureAdditions</t>
-  </si>
-  <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Подробнее о параметре</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
-  </si>
-  <si>
-    <t>Одно значение из выпадающего списка в ячейке</t>
-  </si>
-  <si>
-    <t>Текст</t>
   </si>
   <si>
     <t>Тумба офисная на колесиках</t>
@@ -688,9 +673,6 @@
     <t>Мебель и интерьер</t>
   </si>
   <si>
-    <t>Одно или несколько значений из выпадающего списка в ячейке</t>
-  </si>
-  <si>
     <t>Шкафы, комоды и стеллажи</t>
   </si>
   <si>
@@ -704,10 +686,6 @@
   </si>
   <si>
     <t>В наличии</t>
-  </si>
-  <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
   </si>
   <si>
     <t>Бежевый</t>
@@ -847,9 +825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,9 +865,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,9 +900,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,9 +952,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,294 +1276,168 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
       <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2">
+        <v>1999</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>103</v>
+      <c r="AL2">
+        <v>58</v>
+      </c>
+      <c r="AM2">
+        <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
       <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <v>1999</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AF3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AH3" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AI3" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="AJ3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>41</v>
+        <v>109</v>
+      </c>
+      <c r="AK3">
+        <v>42</v>
+      </c>
+      <c r="AL3">
+        <v>58</v>
+      </c>
+      <c r="AM3">
+        <v>53</v>
       </c>
       <c r="AN3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>99</v>
       </c>
-      <c r="AC4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>104</v>
-      </c>
       <c r="AF4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1563,54 +1449,54 @@
         <v>53</v>
       </c>
       <c r="AN4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" t="s">
         <v>96</v>
       </c>
-      <c r="AA5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>99</v>
       </c>
-      <c r="AC5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>105</v>
-      </c>
       <c r="AF5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1622,1043 +1508,925 @@
         <v>53</v>
       </c>
       <c r="AN5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N6">
-        <v>1999</v>
+        <v>2999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>102</v>
-      </c>
       <c r="AE6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AH6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK6">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AL6">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AM6">
-        <v>53</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N7">
-        <v>1999</v>
+        <v>2499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD7" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>106</v>
-      </c>
       <c r="AF7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AH7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N8">
-        <v>2999</v>
+        <v>1999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" t="s">
         <v>96</v>
       </c>
-      <c r="AA8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>99</v>
       </c>
-      <c r="AC8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>104</v>
-      </c>
       <c r="AF8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AH8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK8">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AL8">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="AM8">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>2499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>99</v>
       </c>
-      <c r="AC9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>105</v>
-      </c>
       <c r="AF9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AH9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK9">
         <v>44</v>
       </c>
       <c r="AL9">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AM9">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AN9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N10">
-        <v>1999</v>
+        <v>2499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD10" t="s">
         <v>96</v>
       </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>99</v>
       </c>
-      <c r="AC10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>106</v>
-      </c>
       <c r="AF10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL10">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AM10">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AN10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N11">
         <v>2499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD11" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AE11" t="s">
         <v>98</v>
       </c>
-      <c r="AB11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>106</v>
-      </c>
       <c r="AF11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL11">
         <v>75</v>
       </c>
       <c r="AM11">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>2499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" t="s">
         <v>96</v>
       </c>
-      <c r="AA12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>102</v>
-      </c>
       <c r="AE12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AF12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AH12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK12">
         <v>44</v>
       </c>
       <c r="AL12">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AM12">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N13">
         <v>2499</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD13" t="s">
         <v>96</v>
       </c>
-      <c r="AA13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>102</v>
-      </c>
       <c r="AE13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK13">
+        <v>40</v>
+      </c>
+      <c r="AL13">
+        <v>70</v>
+      </c>
+      <c r="AM13">
+        <v>45</v>
+      </c>
+      <c r="AN13" t="s">
         <v>111</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK13">
-        <v>43</v>
-      </c>
-      <c r="AL13">
-        <v>75</v>
-      </c>
-      <c r="AM13">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N14">
-        <v>2499</v>
+        <v>1999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
         <v>96</v>
       </c>
-      <c r="AA14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>104</v>
-      </c>
       <c r="AF14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL14">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM14">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N15">
-        <v>2499</v>
+        <v>999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD15" t="s">
         <v>96</v>
       </c>
-      <c r="AA15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>102</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH15" t="s">
         <v>107</v>
       </c>
-      <c r="AF15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>114</v>
-      </c>
       <c r="AI15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL15">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AM15">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AN15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16">
+        <v>2499</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK16">
+        <v>44</v>
+      </c>
+      <c r="AL16">
+        <v>75</v>
+      </c>
+      <c r="AM16">
         <v>68</v>
       </c>
-      <c r="N16">
-        <v>1999</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK16">
-        <v>42</v>
-      </c>
-      <c r="AL16">
-        <v>56</v>
-      </c>
-      <c r="AM16">
-        <v>45</v>
-      </c>
       <c r="AN16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N17">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD17" t="s">
         <v>96</v>
       </c>
-      <c r="AA17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>102</v>
-      </c>
       <c r="AE17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>109</v>
       </c>
-      <c r="AF17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>116</v>
-      </c>
       <c r="AK17">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AL17">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AM17">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AN17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N18">
         <v>2499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB18" t="s">
         <v>94</v>
       </c>
-      <c r="S18" t="s">
+      <c r="AC18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD18" t="s">
         <v>96</v>
       </c>
-      <c r="AA18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>102</v>
-      </c>
       <c r="AE18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AF18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK18">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AL18">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AM18">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="AN18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="S19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB19" t="s">
         <v>94</v>
       </c>
-      <c r="S19" t="s">
+      <c r="AC19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD19" t="s">
         <v>96</v>
       </c>
-      <c r="AA19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>102</v>
-      </c>
       <c r="AE19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AF19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK19">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL19">
         <v>74</v>
       </c>
       <c r="AM19">
-        <v>45</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="12:40" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>2499</v>
+        <v>3999</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="AA20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC20" t="s">
         <v>95</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>96</v>
       </c>
-      <c r="AA20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>102</v>
-      </c>
       <c r="AE20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AI20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AJ20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AK20">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AL20">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="AM20">
-        <v>48</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="12:40" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21">
-        <v>3499</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK21">
-        <v>81</v>
-      </c>
-      <c r="AL21">
-        <v>74</v>
-      </c>
-      <c r="AM21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="12:40" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22">
-        <v>3999</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK22">
-        <v>85</v>
-      </c>
-      <c r="AL22">
-        <v>117</v>
-      </c>
-      <c r="AM22">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCFE300-AC66-4472-8F4E-17175F369E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F6342-F383-462E-8544-7266E5A11E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>FurnitureAdditions</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Тумба офисная на колесиках</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
   </si>
   <si>
     <t>Тумба для документов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тумба подкатная </t>
   </si>
   <si>
     <t>Тумба офисная на колесиках
@@ -607,6 +613,121 @@
     </t>
   </si>
   <si>
+    <t>Тумба офисная
+Артикул 2475
+Размер ДхШхВ: 82х44х75
+Цвет береза
+Цена 3 999
+Количество уточняйте
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Тумба офисная под оргтехнику
+Артикул 2485
+Размер ДхШхВ: 82х44х85
+Цвет берёза 
+Цена 3 999
+Количество уточняйте
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тумба подкатная 
+Артикул 980
+Размер ДхШхВ: 59х48х70
+Цвет палермо
+Цена: 2 499
+Количество уточняйте
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Тумба подкатная 
+Артикул 987
+Размер ДхШхВ: 59х48х67
+Цвет берёза
+Цена: 2 499
+Количество уточняйте
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Тумба офисная
+Артикул 987980
+Размер ДхШхВ: 59х48х67, 
+59х48х70
+Цвет берёза
+Цена: 2 499
+Количество уточняйте
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/4zlixlF0y5VQ2w | https://disk.yandex.ru/i/jE9DQ6REsY5FMQ | https://disk.yandex.ru/i/FgtLPdpgxSih2A | https://disk.yandex.ru/i/prG8a_cupyZv9g | https://disk.yandex.ru/i/n8vb4hYQ4qzJRw</t>
   </si>
   <si>
@@ -664,6 +785,21 @@
     <t>https://disk.yandex.ru/i/zI12DT_BBNn1Qw | https://disk.yandex.ru/i/1leWdliX58STAQ | https://disk.yandex.ru/i/vsomk0foEE1gfw | https://disk.yandex.ru/i/sJ0K-e1MT_LvqQ | https://disk.yandex.ru/i/jbNLbxkbM4-eWg | https://disk.yandex.ru/i/7THlHD4yU63wqQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/2UMs4hF-It9ieQ | https://disk.yandex.ru/i/wAre_5GBNHt0Dw | https://disk.yandex.ru/i/vTa2t5qeV5mL-w | https://disk.yandex.ru/i/fss1bqm4PsdoXQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/218xFMgDAllKbA | https://disk.yandex.ru/i/kNB2zzO_iICHNQ | https://disk.yandex.ru/i/o1JhPcKcbF8oFw | https://disk.yandex.ru/i/Z-M187qlVH-7NQ | https://disk.yandex.ru/i/cRyC68hR2R1Fdw | https://disk.yandex.ru/i/dg8qDMWv0I1t8w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/gw1A4vFnhK5sXg | https://disk.yandex.ru/i/VKhPTNaWv7SjGg | https://disk.yandex.ru/i/sw37uHGAO1Txug</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/uiTLbI_dtPdaPg | https://disk.yandex.ru/i/PTrMskmsVWlkjQ | https://disk.yandex.ru/i/waAkpvkmFse4Zw | https://disk.yandex.ru/i/cRUmHs0VW2pZ9A | https://disk.yandex.ru/i/pJjnPM25zIEeLQ | https://disk.yandex.ru/i/YX0hegqiPCN0fQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/waAkpvkmFse4Zw | https://disk.yandex.ru/i/cRUmHs0VW2pZ9A | https://disk.yandex.ru/i/pJjnPM25zIEeLQ | https://disk.yandex.ru/i/YX0hegqiPCN0fQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc</t>
   </si>
   <si>
@@ -731,6 +867,12 @@
   </si>
   <si>
     <t>Ящики</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -1145,15 +1287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,52 +1414,55 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N2">
         <v>1999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK2">
         <v>42</v>
@@ -1331,54 +1474,57 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1999</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK3">
         <v>42</v>
@@ -1390,54 +1536,57 @@
         <v>53</v>
       </c>
       <c r="AN3" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1449,54 +1598,57 @@
         <v>53</v>
       </c>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AF5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AH5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1508,54 +1660,57 @@
         <v>53</v>
       </c>
       <c r="AN5" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>2999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK6">
         <v>80</v>
@@ -1566,52 +1721,55 @@
       <c r="AM6">
         <v>40</v>
       </c>
+      <c r="AO6" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>2499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK7">
         <v>44</v>
@@ -1623,54 +1781,57 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>1999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AF8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AH8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK8">
         <v>43</v>
@@ -1682,54 +1843,57 @@
         <v>44</v>
       </c>
       <c r="AN8" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N9">
         <v>2499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA9" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AH9" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK9">
         <v>44</v>
@@ -1741,54 +1905,57 @@
         <v>68</v>
       </c>
       <c r="AN9" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N10">
         <v>2499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB10" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AH10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK10">
         <v>44</v>
@@ -1800,54 +1967,57 @@
         <v>68</v>
       </c>
       <c r="AN10" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>2499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AH11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK11">
         <v>43</v>
@@ -1859,54 +2029,57 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N12">
         <v>2499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD12" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH12" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK12">
         <v>44</v>
@@ -1918,54 +2091,57 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>2499</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC13" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD13" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="AH13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK13">
         <v>40</v>
@@ -1977,54 +2153,57 @@
         <v>45</v>
       </c>
       <c r="AN13" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB14" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD14" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE14" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AH14" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK14">
         <v>42</v>
@@ -2036,54 +2215,57 @@
         <v>45</v>
       </c>
       <c r="AN14" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB15" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC15" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD15" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE15" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AH15" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI15" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK15">
         <v>42</v>
@@ -2095,54 +2277,57 @@
         <v>53</v>
       </c>
       <c r="AN15" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>2499</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH16" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI16" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK16">
         <v>44</v>
@@ -2154,54 +2339,57 @@
         <v>68</v>
       </c>
       <c r="AN16" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="17" spans="12:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N17">
         <v>3499</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA17" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB17" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD17" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK17">
         <v>80</v>
@@ -2213,54 +2401,57 @@
         <v>45</v>
       </c>
       <c r="AN17" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="18" spans="12:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>2499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA18" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB18" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD18" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE18" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AH18" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI18" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK18">
         <v>59</v>
@@ -2272,54 +2463,57 @@
         <v>48</v>
       </c>
       <c r="AN18" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="19" spans="12:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA19" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB19" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AC19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE19" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AH19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK19">
         <v>81</v>
@@ -2330,52 +2524,55 @@
       <c r="AM19">
         <v>44</v>
       </c>
+      <c r="AO19" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="20" spans="12:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>3999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AC20" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AD20" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AE20" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF20" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AH20" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AI20" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AK20">
         <v>85</v>
@@ -2385,6 +2582,319 @@
       </c>
       <c r="AM20">
         <v>46</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2475</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21">
+        <v>3999</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK21">
+        <v>82</v>
+      </c>
+      <c r="AL21">
+        <v>75</v>
+      </c>
+      <c r="AM21">
+        <v>44</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2485</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22">
+        <v>3999</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK22">
+        <v>82</v>
+      </c>
+      <c r="AL22">
+        <v>85</v>
+      </c>
+      <c r="AM22">
+        <v>44</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>980</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23">
+        <v>2499</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK23">
+        <v>59</v>
+      </c>
+      <c r="AL23">
+        <v>70</v>
+      </c>
+      <c r="AM23">
+        <v>48</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>987</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24">
+        <v>2499</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK24">
+        <v>59</v>
+      </c>
+      <c r="AL24">
+        <v>67</v>
+      </c>
+      <c r="AM24">
+        <v>48</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>987980</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25">
+        <v>2499</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK25">
+        <v>59</v>
+      </c>
+      <c r="AL25">
+        <v>67</v>
+      </c>
+      <c r="AM25">
+        <v>48</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2427,6 +2937,16 @@
     <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F6342-F383-462E-8544-7266E5A11E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -199,7 +193,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -221,7 +214,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -241,7 +233,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -266,7 +257,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -291,7 +281,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -314,7 +303,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -339,7 +327,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -364,7 +351,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -389,7 +375,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -411,7 +396,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -436,7 +420,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -461,7 +444,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -483,7 +465,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -508,7 +489,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -532,7 +512,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -878,8 +857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,26 +929,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1007,9 +978,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,27 +1012,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,27 +1046,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1286,14 +1221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="L2" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1415,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="L3" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="L4" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="L5" t="s">
         <v>44</v>
       </c>
@@ -1666,7 +1601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="L6" t="s">
         <v>45</v>
       </c>
@@ -1725,7 +1660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="L7" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1722,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="L8" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="L9" t="s">
         <v>47</v>
       </c>
@@ -1911,7 +1846,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="L10" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="L11" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +1970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2032,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="L13" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2094,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="L14" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="L15" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2218,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="L16" t="s">
         <v>49</v>
       </c>
@@ -2345,7 +2280,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="L17" t="s">
         <v>50</v>
       </c>
@@ -2407,7 +2342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="L18" t="s">
         <v>51</v>
       </c>
@@ -2469,7 +2404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="L19" t="s">
         <v>45</v>
       </c>
@@ -2528,7 +2463,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="L20" t="s">
         <v>52</v>
       </c>
@@ -2587,7 +2522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2475</v>
       </c>
@@ -2649,7 +2584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2485</v>
       </c>
@@ -2711,7 +2646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>980</v>
       </c>
@@ -2773,7 +2708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>987</v>
       </c>
@@ -2835,7 +2770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>987980</v>
       </c>
@@ -2899,54 +2834,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -533,7 +533,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -556,7 +555,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -582,7 +580,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF607F9D-CE32-479A-9BB4-39025FC0887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -845,17 +851,14 @@
     <t>Ящики</t>
   </si>
   <si>
-    <t>b''</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,18 +929,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -975,9 +986,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,9 +1020,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1043,9 +1072,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1218,14 +1265,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AO22" sqref="AO2:AO22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>41</v>
       </c>
@@ -1412,7 +1461,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>42</v>
       </c>
@@ -1474,7 +1523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +1585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>44</v>
       </c>
@@ -1598,7 +1647,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>45</v>
       </c>
@@ -1657,7 +1706,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>41</v>
       </c>
@@ -1719,7 +1768,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1830,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>47</v>
       </c>
@@ -1843,7 +1892,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +1954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>43</v>
       </c>
@@ -1967,7 +2016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -2029,7 +2078,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2140,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2202,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2326,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>50</v>
       </c>
@@ -2339,7 +2388,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>51</v>
       </c>
@@ -2401,7 +2450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2509,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>52</v>
       </c>
@@ -2519,7 +2568,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2475</v>
       </c>
@@ -2578,10 +2627,10 @@
         <v>123</v>
       </c>
       <c r="AO21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2485</v>
       </c>
@@ -2640,10 +2689,10 @@
         <v>123</v>
       </c>
       <c r="AO22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>980</v>
       </c>
@@ -2702,10 +2751,10 @@
         <v>123</v>
       </c>
       <c r="AO23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>987</v>
       </c>
@@ -2764,10 +2813,10 @@
         <v>123</v>
       </c>
       <c r="AO24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>987980</v>
       </c>
@@ -2826,59 +2875,59 @@
         <v>123</v>
       </c>
       <c r="AO25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF607F9D-CE32-479A-9BB4-39025FC0887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -857,8 +851,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,26 +923,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -986,9 +972,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,27 +1006,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,27 +1040,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1265,16 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO2:AO22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="L2" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="L3" t="s">
         <v>42</v>
       </c>
@@ -1523,7 +1471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="L4" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="L5" t="s">
         <v>44</v>
       </c>
@@ -1647,7 +1595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="L6" t="s">
         <v>45</v>
       </c>
@@ -1706,7 +1654,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="L7" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="L8" t="s">
         <v>46</v>
       </c>
@@ -1830,7 +1778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="L9" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="L10" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="L11" t="s">
         <v>43</v>
       </c>
@@ -2016,7 +1964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="L13" t="s">
         <v>46</v>
       </c>
@@ -2140,7 +2088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="L14" t="s">
         <v>48</v>
       </c>
@@ -2202,7 +2150,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="L15" t="s">
         <v>46</v>
       </c>
@@ -2264,7 +2212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="L16" t="s">
         <v>49</v>
       </c>
@@ -2326,7 +2274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="L17" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="L18" t="s">
         <v>51</v>
       </c>
@@ -2450,7 +2398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="L19" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="L20" t="s">
         <v>52</v>
       </c>
@@ -2568,7 +2516,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2475</v>
       </c>
@@ -2630,7 +2578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2485</v>
       </c>
@@ -2692,7 +2640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>980</v>
       </c>
@@ -2754,7 +2702,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>987</v>
       </c>
@@ -2816,7 +2764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>987980</v>
       </c>
@@ -2880,54 +2828,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D1AD0-49C9-4822-8024-F1D07FD31A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -176,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve">Тумба подкатная </t>
+  </si>
+  <si>
+    <t>Тумба под оргтехнику "Haworth "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тумба металлическая "Haworth" </t>
   </si>
   <si>
     <t>Тумба офисная на колесиках
@@ -704,6 +716,50 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Тумба под оргтехнику "Haworth "
+Артикул 83732ПРТО
+Размеры ДхШхВ: 80х43х73
+Цвет шимо
+Цена 2 999
+Количество 3
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Тумба металлическая "Haworth" 
+Артикул 125702ПМТ
+Размеры ДхШхВ: 120х45х70
+Цвет серый 
+Цена 4999
+Количество 7
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/4zlixlF0y5VQ2w | https://disk.yandex.ru/i/jE9DQ6REsY5FMQ | https://disk.yandex.ru/i/FgtLPdpgxSih2A | https://disk.yandex.ru/i/prG8a_cupyZv9g | https://disk.yandex.ru/i/n8vb4hYQ4qzJRw</t>
   </si>
   <si>
@@ -776,6 +832,9 @@
     <t>https://disk.yandex.ru/i/waAkpvkmFse4Zw | https://disk.yandex.ru/i/cRUmHs0VW2pZ9A | https://disk.yandex.ru/i/pJjnPM25zIEeLQ | https://disk.yandex.ru/i/YX0hegqiPCN0fQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/tJ7BOq7H4EaUmQ | https://disk.yandex.ru/i/aTBC8sJM3Ghj2Q | https://disk.yandex.ru/i/Hb8eIQD_ElvYvA | https://disk.yandex.ru/i/NCodN2SCXS9sXA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc</t>
   </si>
   <si>
@@ -839,6 +898,12 @@
     <t>ДСП</t>
   </si>
   <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>ЛДСП | ДСП</t>
+  </si>
+  <si>
     <t>Колесики | Ящики</t>
   </si>
   <si>
@@ -846,13 +911,16 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8c7S3U056zRmCg | https://disk.yandex.ru/i/oAophcSZIgJ1Rw | https://disk.yandex.ru/i/6M6fkn6_yRDQtA | https://disk.yandex.ru/i/Flf486dQd5gyvQ | https://disk.yandex.ru/i/XlBHtiZBTqE1Qw | https://disk.yandex.ru/i/h0uiTes8vAXC2w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,18 +991,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -972,9 +1048,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,9 +1082,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1134,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1215,14 +1327,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,51 +1461,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N2">
         <v>1999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK2">
         <v>42</v>
@@ -1403,57 +1517,57 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1999</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AF3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AH3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK3">
         <v>42</v>
@@ -1465,57 +1579,57 @@
         <v>53</v>
       </c>
       <c r="AN3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1527,57 +1641,57 @@
         <v>53</v>
       </c>
       <c r="AN4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1589,57 +1703,57 @@
         <v>53</v>
       </c>
       <c r="AN5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>2999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK6">
         <v>80</v>
@@ -1651,54 +1765,54 @@
         <v>40</v>
       </c>
       <c r="AO6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>2499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AH7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK7">
         <v>44</v>
@@ -1710,57 +1824,57 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>1999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK8">
         <v>43</v>
@@ -1772,57 +1886,57 @@
         <v>44</v>
       </c>
       <c r="AN8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>2499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK9">
         <v>44</v>
@@ -1834,57 +1948,57 @@
         <v>68</v>
       </c>
       <c r="AN9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>2499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK10">
         <v>44</v>
@@ -1896,57 +2010,57 @@
         <v>68</v>
       </c>
       <c r="AN10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>2499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AF11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AH11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK11">
         <v>43</v>
@@ -1958,57 +2072,57 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>2499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK12">
         <v>44</v>
@@ -2020,57 +2134,57 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>2499</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK13">
         <v>40</v>
@@ -2082,57 +2196,57 @@
         <v>45</v>
       </c>
       <c r="AN13" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AH14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK14">
         <v>42</v>
@@ -2144,57 +2258,57 @@
         <v>45</v>
       </c>
       <c r="AN14" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK15">
         <v>42</v>
@@ -2206,57 +2320,57 @@
         <v>53</v>
       </c>
       <c r="AN15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>2499</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK16">
         <v>44</v>
@@ -2268,57 +2382,57 @@
         <v>68</v>
       </c>
       <c r="AN16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>3499</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK17">
         <v>80</v>
@@ -2330,57 +2444,57 @@
         <v>45</v>
       </c>
       <c r="AN17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>2499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK18">
         <v>59</v>
@@ -2392,57 +2506,57 @@
         <v>48</v>
       </c>
       <c r="AN18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AH19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK19">
         <v>81</v>
@@ -2454,54 +2568,54 @@
         <v>44</v>
       </c>
       <c r="AO19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N20">
         <v>3999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AH20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK20">
         <v>85</v>
@@ -2513,10 +2627,10 @@
         <v>46</v>
       </c>
       <c r="AO20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2475</v>
       </c>
@@ -2524,43 +2638,43 @@
         <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>3999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB21" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK21">
         <v>82</v>
@@ -2572,13 +2686,13 @@
         <v>44</v>
       </c>
       <c r="AN21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2485</v>
       </c>
@@ -2586,43 +2700,43 @@
         <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N22">
         <v>3999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK22">
         <v>82</v>
@@ -2634,13 +2748,13 @@
         <v>44</v>
       </c>
       <c r="AN22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>980</v>
       </c>
@@ -2648,43 +2762,43 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <v>2499</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK23">
         <v>59</v>
@@ -2696,13 +2810,13 @@
         <v>48</v>
       </c>
       <c r="AN23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>987</v>
       </c>
@@ -2710,43 +2824,43 @@
         <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N24">
         <v>2499</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK24">
         <v>59</v>
@@ -2758,13 +2872,13 @@
         <v>48</v>
       </c>
       <c r="AN24" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO24" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>987980</v>
       </c>
@@ -2772,43 +2886,43 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N25">
         <v>2499</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AA25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AI25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AJ25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK25">
         <v>59</v>
@@ -2820,62 +2934,253 @@
         <v>48</v>
       </c>
       <c r="AN25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>83732</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26">
+        <v>2999</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH26" t="s">
         <v>124</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK26">
+        <v>80</v>
+      </c>
+      <c r="AL26">
+        <v>73</v>
+      </c>
+      <c r="AM26">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>125702</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27">
+        <v>6999</v>
+      </c>
+      <c r="O27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK27">
+        <v>120</v>
+      </c>
+      <c r="AL27">
+        <v>70</v>
+      </c>
+      <c r="AM27">
+        <v>45</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>83732</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28">
+        <v>2999</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK28">
+        <v>80</v>
+      </c>
+      <c r="AL28">
+        <v>73</v>
+      </c>
+      <c r="AM28">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/cabinet.xlsx
+++ b/make_xl/data_xl/cabinet.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D1AD0-49C9-4822-8024-F1D07FD31A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">Тумба металлическая "Haworth" </t>
+  </si>
+  <si>
+    <t>Картотека</t>
   </si>
   <si>
     <t>Тумба офисная на колесиках
@@ -760,6 +757,29 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Картотека
+Артикул 472565ЯКМ
+Металлическая кортотека с 5 ящиками в хорошем состоянии
+Размеры ДхШхВ: 52x47x156
+Цвет: Серый
+Цена: 6999
+Количество: 1
+    Офисная тумба на колёсиках 
+    У нас есть много тумб, которые подойдут офиса и дома. Все тумбы бу в хорошем состоянии за 1999.
+    Но так же имеются тумбы с изъянами за 999 руб. 
+    Есть металлические тумбы и картотеки от 2999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/4zlixlF0y5VQ2w | https://disk.yandex.ru/i/jE9DQ6REsY5FMQ | https://disk.yandex.ru/i/FgtLPdpgxSih2A | https://disk.yandex.ru/i/prG8a_cupyZv9g | https://disk.yandex.ru/i/n8vb4hYQ4qzJRw</t>
   </si>
   <si>
@@ -835,6 +855,12 @@
     <t>https://disk.yandex.ru/i/tJ7BOq7H4EaUmQ | https://disk.yandex.ru/i/aTBC8sJM3Ghj2Q | https://disk.yandex.ru/i/Hb8eIQD_ElvYvA | https://disk.yandex.ru/i/NCodN2SCXS9sXA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/8c7S3U056zRmCg | https://disk.yandex.ru/i/oAophcSZIgJ1Rw | https://disk.yandex.ru/i/6M6fkn6_yRDQtA | https://disk.yandex.ru/i/Flf486dQd5gyvQ | https://disk.yandex.ru/i/XlBHtiZBTqE1Qw | https://disk.yandex.ru/i/h0uiTes8vAXC2w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Pw9l0w_-JjoyGA | https://disk.yandex.ru/i/rAT9MmTz8wp4LA | https://disk.yandex.ru/i/X-vbzo3mM96uQQ | https://disk.yandex.ru/i/JPWk4a0j0rbwvg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc</t>
   </si>
   <si>
@@ -911,16 +937,13 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/8c7S3U056zRmCg | https://disk.yandex.ru/i/oAophcSZIgJ1Rw | https://disk.yandex.ru/i/6M6fkn6_yRDQtA | https://disk.yandex.ru/i/Flf486dQd5gyvQ | https://disk.yandex.ru/i/XlBHtiZBTqE1Qw | https://disk.yandex.ru/i/h0uiTes8vAXC2w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,26 +1014,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1048,9 +1063,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,27 +1097,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,27 +1131,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1327,16 +1306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,51 +1438,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="L2" t="s">
         <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2">
         <v>1999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK2">
         <v>42</v>
@@ -1517,57 +1494,57 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="L3" t="s">
         <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1999</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AH3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK3">
         <v>42</v>
@@ -1579,57 +1556,57 @@
         <v>53</v>
       </c>
       <c r="AN3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="L4" t="s">
         <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AH4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1641,57 +1618,57 @@
         <v>53</v>
       </c>
       <c r="AN4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1703,57 +1680,57 @@
         <v>53</v>
       </c>
       <c r="AN5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="L6" t="s">
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>2999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK6">
         <v>80</v>
@@ -1765,54 +1742,54 @@
         <v>40</v>
       </c>
       <c r="AO6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="L7" t="s">
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>2499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AH7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK7">
         <v>44</v>
@@ -1824,57 +1801,57 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="L8" t="s">
         <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N8">
         <v>1999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK8">
         <v>43</v>
@@ -1886,57 +1863,57 @@
         <v>44</v>
       </c>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="L9" t="s">
         <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>2499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK9">
         <v>44</v>
@@ -1948,57 +1925,57 @@
         <v>68</v>
       </c>
       <c r="AN9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>2499</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AH10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK10">
         <v>44</v>
@@ -2010,57 +1987,57 @@
         <v>68</v>
       </c>
       <c r="AN10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="L11" t="s">
         <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>2499</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AH11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK11">
         <v>43</v>
@@ -2072,57 +2049,57 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="L12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>2499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK12">
         <v>44</v>
@@ -2134,57 +2111,57 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="L13" t="s">
         <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>2499</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK13">
         <v>40</v>
@@ -2196,57 +2173,57 @@
         <v>45</v>
       </c>
       <c r="AN13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="L14" t="s">
         <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>1999</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK14">
         <v>42</v>
@@ -2258,57 +2235,57 @@
         <v>45</v>
       </c>
       <c r="AN14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="L15" t="s">
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AH15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK15">
         <v>42</v>
@@ -2320,57 +2297,57 @@
         <v>53</v>
       </c>
       <c r="AN15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="L16" t="s">
         <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>2499</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK16">
         <v>44</v>
@@ -2382,57 +2359,57 @@
         <v>68</v>
       </c>
       <c r="AN16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="L17" t="s">
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>3499</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK17">
         <v>80</v>
@@ -2444,57 +2421,57 @@
         <v>45</v>
       </c>
       <c r="AN17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="L18" t="s">
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>2499</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK18">
         <v>59</v>
@@ -2506,57 +2483,57 @@
         <v>48</v>
       </c>
       <c r="AN18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AO18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="L19" t="s">
         <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <v>3499</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AH19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK19">
         <v>81</v>
@@ -2568,54 +2545,54 @@
         <v>44</v>
       </c>
       <c r="AO19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="L20" t="s">
         <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>3999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AH20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK20">
         <v>85</v>
@@ -2627,10 +2604,10 @@
         <v>46</v>
       </c>
       <c r="AO20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2475</v>
       </c>
@@ -2638,43 +2615,43 @@
         <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N21">
         <v>3999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK21">
         <v>82</v>
@@ -2686,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="AN21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2485</v>
       </c>
@@ -2700,43 +2677,43 @@
         <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N22">
         <v>3999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK22">
         <v>82</v>
@@ -2748,13 +2725,13 @@
         <v>44</v>
       </c>
       <c r="AN22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>980</v>
       </c>
@@ -2762,43 +2739,43 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N23">
         <v>2499</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK23">
         <v>59</v>
@@ -2810,13 +2787,13 @@
         <v>48</v>
       </c>
       <c r="AN23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>987</v>
       </c>
@@ -2824,43 +2801,43 @@
         <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N24">
         <v>2499</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK24">
         <v>59</v>
@@ -2872,13 +2849,13 @@
         <v>48</v>
       </c>
       <c r="AN24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>987980</v>
       </c>
@@ -2886,43 +2863,43 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N25">
         <v>2499</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK25">
         <v>59</v>
@@ -2934,13 +2911,13 @@
         <v>48</v>
       </c>
       <c r="AN25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>83732</v>
       </c>
@@ -2948,43 +2925,43 @@
         <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>2999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK26">
         <v>80</v>
@@ -2996,13 +2973,13 @@
         <v>43</v>
       </c>
       <c r="AN26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>125702</v>
       </c>
@@ -3010,43 +2987,43 @@
         <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27">
         <v>6999</v>
       </c>
-      <c r="O27" t="s">
-        <v>132</v>
+      <c r="O27" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ27" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AK27">
         <v>120</v>
@@ -3058,13 +3035,13 @@
         <v>45</v>
       </c>
       <c r="AN27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>83732</v>
       </c>
@@ -3072,43 +3049,43 @@
         <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N28">
         <v>2999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AB28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AK28">
         <v>80</v>
@@ -3120,67 +3097,132 @@
         <v>43</v>
       </c>
       <c r="AN28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29">
+        <v>472565</v>
+      </c>
+      <c r="L29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>6999</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>131</v>
+      </c>
+      <c r="AK29">
+        <v>52</v>
+      </c>
+      <c r="AL29">
+        <v>156</v>
+      </c>
+      <c r="AM29">
+        <v>47</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="Q27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="Q28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
